--- a/document/New Microsoft Excel Worksheet.xlsx
+++ b/document/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\web dev cource\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0209FB53-D65C-4B4D-9B52-73BC7B26332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16447C51-CB2D-4842-87A4-24BED87BAA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5535" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>S.N</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>https://picsum.photos/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +507,9 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">

--- a/document/New Microsoft Excel Worksheet.xlsx
+++ b/document/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\web dev cource\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16447C51-CB2D-4842-87A4-24BED87BAA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7870C2C0-C72B-4623-B97F-8995F382ACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5535" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36150" yWindow="-5415" windowWidth="17250" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>S.N</t>
   </si>
@@ -60,7 +60,16 @@
     <t>https://picsum.photos/</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>https://developer.mozilla.org/en-US/docs/Web/CSS/named-color</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>color palette</t>
+  </si>
+  <si>
+    <t>https://colorhunt.co/</t>
   </si>
 </sst>
 </file>
@@ -420,14 +429,14 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.88671875" customWidth="1"/>
     <col min="2" max="2" width="28.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -508,16 +517,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -576,6 +591,7 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{C782C3B6-0281-4792-8F44-A9E38F941AC6}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{5A6CC2F7-6AB2-4730-BD45-18B66635B871}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{8254137E-CE6A-4895-A068-D64E55293E6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
